--- a/dates.xlsx
+++ b/dates.xlsx
@@ -21,7 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>class-date</t>
+    <t>Dates</t>
   </si>
 </sst>
 </file>
@@ -342,9 +342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -368,67 +366,67 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f>A2+7</f>
+        <f t="shared" ref="A4:A14" si="0">A2+7</f>
         <v>43124</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f>A3+7</f>
+        <f t="shared" si="0"/>
         <v>43129</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f>A4+7</f>
+        <f t="shared" si="0"/>
         <v>43131</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>A5+7</f>
+        <f t="shared" si="0"/>
         <v>43136</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f>A6+7</f>
+        <f t="shared" si="0"/>
         <v>43138</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f>A7+7</f>
+        <f t="shared" si="0"/>
         <v>43143</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f>A8+7</f>
+        <f t="shared" si="0"/>
         <v>43145</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f>A9+7</f>
+        <f t="shared" si="0"/>
         <v>43150</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f>A10+7</f>
+        <f t="shared" si="0"/>
         <v>43152</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f>A11+7</f>
+        <f t="shared" si="0"/>
         <v>43157</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f>A12+7</f>
+        <f t="shared" si="0"/>
         <v>43159</v>
       </c>
     </row>
@@ -446,79 +444,79 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f>A15+7</f>
+        <f t="shared" ref="A17:A29" si="1">A15+7</f>
         <v>43178</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f>A16+7</f>
+        <f t="shared" si="1"/>
         <v>43180</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f>A17+7</f>
+        <f t="shared" si="1"/>
         <v>43185</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f>A18+7</f>
+        <f t="shared" si="1"/>
         <v>43187</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f>A19+7</f>
+        <f t="shared" si="1"/>
         <v>43192</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f>A20+7</f>
+        <f t="shared" si="1"/>
         <v>43194</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f>A21+7</f>
+        <f t="shared" si="1"/>
         <v>43199</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f>A22+7</f>
+        <f t="shared" si="1"/>
         <v>43201</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f>A23+7</f>
+        <f t="shared" si="1"/>
         <v>43206</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f>A24+7</f>
+        <f t="shared" si="1"/>
         <v>43208</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f>A25+7</f>
+        <f t="shared" si="1"/>
         <v>43213</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f>A26+7</f>
+        <f t="shared" si="1"/>
         <v>43215</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f>A27+7</f>
+        <f t="shared" si="1"/>
         <v>43220</v>
       </c>
     </row>
